--- a/sorensenLab/relatedToDlg2/design20210210_dlg2OrfDesign/DLG2long/oligosDesignWorkbookOstir1Redesign.xlsx
+++ b/sorensenLab/relatedToDlg2/design20210210_dlg2OrfDesign/DLG2long/oligosDesignWorkbookOstir1Redesign.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chughes\Documents\bccrc\projectsWorkspace\sorensenLab\relatedToYbx1\design20210912_ostir1Redesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chughes\Documents\bccrc\projectsWorkspace\sorensenLab\relatedToYbx1\design20210909_inducibleYbx1Construct\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="149">
   <si>
     <t>name</t>
   </si>
@@ -270,13 +270,214 @@
   </si>
   <si>
     <t>mcherry for pCW vector, NheI + BamHI</t>
+  </si>
+  <si>
+    <t>YB1_GUC.2_FWD</t>
+  </si>
+  <si>
+    <t>YB1_GUC.2_REV</t>
+  </si>
+  <si>
+    <t>AAAGCAGAGAGCATGGTGGC</t>
+  </si>
+  <si>
+    <t>AGCATGCTACTACTCCTGTCG</t>
+  </si>
+  <si>
+    <t>cut products are 151, 175</t>
+  </si>
+  <si>
+    <t>yb1GucScreenFwd1</t>
+  </si>
+  <si>
+    <t>AAGTTGGTAGTTGGGAGATGC</t>
+  </si>
+  <si>
+    <t>cut products around 400bp</t>
+  </si>
+  <si>
+    <t>yb1GucScreenRev1</t>
+  </si>
+  <si>
+    <t>TCCCTACAGGTACACCTAAAAGC</t>
+  </si>
+  <si>
+    <t>yb1Guc2Rev</t>
+  </si>
+  <si>
+    <t>yb1Guc2Fwd</t>
+  </si>
+  <si>
+    <t>GAAGAATGTGCGAGACCCAG</t>
+  </si>
+  <si>
+    <t>pcwSangerRev1</t>
+  </si>
+  <si>
+    <t>AGCTCGTTTAGTGAACCGTC</t>
+  </si>
+  <si>
+    <t>pcwSangerFwd1</t>
+  </si>
+  <si>
+    <t>CGGTGGATGTGGAATGTGTG</t>
+  </si>
+  <si>
+    <t>plvxSangerRev1</t>
+  </si>
+  <si>
+    <t>AAATGTCGTAACAACTCCGCC</t>
+  </si>
+  <si>
+    <t>plvxSangerFwd1</t>
+  </si>
+  <si>
+    <t>ggggccactagggacaggattggCTTCAGGTTCCGTCTTCCTCCA</t>
+  </si>
+  <si>
+    <t>aavsHALgrnaFwd2</t>
+  </si>
+  <si>
+    <t>ccaatcctgtccctagtggccccAAGAGAAAGGGAGTAGAGGCGG</t>
+  </si>
+  <si>
+    <t>aavsHARgrnaRev4</t>
+  </si>
+  <si>
+    <t>aavsHALgrnaGibFwd2</t>
+  </si>
+  <si>
+    <t>aavsOstir1_fwd</t>
+  </si>
+  <si>
+    <t>aavsOstir1_rev</t>
+  </si>
+  <si>
+    <t>aavsHARgrnaGibFwd4</t>
+  </si>
+  <si>
+    <t>aavsHARgrnaGibRev4</t>
+  </si>
+  <si>
+    <t>gcatgcctgcaggtcgactctagagGGGGCCACTAGGGACAGG</t>
+  </si>
+  <si>
+    <t>tctgtcaccaatcAACCATAGAGCCCACCGC</t>
+  </si>
+  <si>
+    <t>ggctctatggttGATTGGTGACAGAAAAGC</t>
+  </si>
+  <si>
+    <t>cgacgttgtaaaacgacggccagtgCCAATCCTGTCCCTAGTG</t>
+  </si>
+  <si>
+    <t>cactagggacagTACGGGGTCATTAGTTCATAGC</t>
+  </si>
+  <si>
+    <t>taatgaccccgtaCTGTCCCTAGTGGCCCCAC</t>
+  </si>
+  <si>
+    <t>aavsHALgrnaGibRev2</t>
+  </si>
+  <si>
+    <t>HAL with sgRNA</t>
+  </si>
+  <si>
+    <t>ostir1NoHaPuc19Rev</t>
+  </si>
+  <si>
+    <t>ostir1NoHaPuc19Fwd</t>
+  </si>
+  <si>
+    <t>cctgcaggtcgactctagagTACGGGGTCATTAGTTCATAGC</t>
+  </si>
+  <si>
+    <t>ttgtaaaacgacggccagtgAACCATAGAGCCCACCGC</t>
+  </si>
+  <si>
+    <t>ostir1 plus puro with no HA</t>
+  </si>
+  <si>
+    <t>for puc19 (does not regen RE sites)</t>
+  </si>
+  <si>
+    <t>ostir1NoHaSanger1</t>
+  </si>
+  <si>
+    <t>ostir1NoHaSanger2</t>
+  </si>
+  <si>
+    <t>ostir1NoHaSanger3</t>
+  </si>
+  <si>
+    <t>ostir1NoHaSanger4</t>
+  </si>
+  <si>
+    <t>ostir1NoHaSanger5</t>
+  </si>
+  <si>
+    <t>AGCTGGTTTAGTGAACCGTC</t>
+  </si>
+  <si>
+    <t>TTGCCTGCATCAAAGGCGAAG</t>
+  </si>
+  <si>
+    <t>GTCGCCAAGAACTGCCCTAATTTC</t>
+  </si>
+  <si>
+    <t>GGGCCGCGACTCTAGATCATAATC</t>
+  </si>
+  <si>
+    <t>GGTGTTCCGCATTCTGCAAG</t>
+  </si>
+  <si>
+    <t>FLAGn_emptyFwd</t>
+  </si>
+  <si>
+    <t>FLAGn_emptyRev</t>
+  </si>
+  <si>
+    <t>tagcgctaccggactcagatgccaccATGGACTACAAGGATCATG</t>
+  </si>
+  <si>
+    <t>cccctacccggtagaattatctagagtctcgagCTTGTCGTCATCATCCTTATAATC</t>
+  </si>
+  <si>
+    <t>FLAGc_emptyFwd</t>
+  </si>
+  <si>
+    <t>FLAGc_emptyRev</t>
+  </si>
+  <si>
+    <t>agcgctaccggactcagatctcgagcatctagaGACTACAAGGATCATGATG</t>
+  </si>
+  <si>
+    <t>cccctacccggtagaattatTTACTTGTCGTCATCATC</t>
+  </si>
+  <si>
+    <t>yb1HALgrnaFwd1</t>
+  </si>
+  <si>
+    <t>yb1HARgrnaRev2</t>
+  </si>
+  <si>
+    <t>yb1HARgrnaRev5</t>
+  </si>
+  <si>
+    <t>gtcttgcaggaatgacaccaaggTGACTGCTCCGACAAAAGGGTA</t>
+  </si>
+  <si>
+    <t>ccttggtgtcattcctgcaagacTGTTCCCAAAACCTTCGTTGCT</t>
+  </si>
+  <si>
+    <t>ccttggtgtcattcctgcaagacAGCCACGATTACCAGCTATCCT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +489,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -313,13 +521,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -602,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,7 +1090,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="3">
-        <f>LEN(B16)</f>
+        <f t="shared" ref="C16:C23" si="2">LEN(B16)</f>
         <v>45</v>
       </c>
       <c r="D16" s="3">
@@ -898,7 +1111,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="3">
-        <f>LEN(B17)</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
     </row>
@@ -910,7 +1123,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="3">
-        <f>LEN(B18)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="D18" s="3">
@@ -931,7 +1144,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="3">
-        <f>LEN(B19)</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
     </row>
@@ -943,7 +1156,7 @@
         <v>30</v>
       </c>
       <c r="C20" s="3">
-        <f>LEN(B20)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="D20" s="3">
@@ -964,7 +1177,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="3">
-        <f>LEN(B21)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -976,7 +1189,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="3">
-        <f>LEN(B22)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="D22" s="3">
@@ -997,7 +1210,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="3">
-        <f>LEN(B23)</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
     </row>
@@ -1009,7 +1222,7 @@
         <v>34</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" ref="C24:C37" si="2">LEN(B24)</f>
+        <f t="shared" ref="C24:C39" si="3">LEN(B24)</f>
         <v>22</v>
       </c>
       <c r="D24" s="3">
@@ -1027,7 +1240,7 @@
         <v>38</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="D25" s="3">
@@ -1045,7 +1258,7 @@
         <v>39</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="D26" s="3">
@@ -1063,7 +1276,7 @@
         <v>40</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="D27" s="3">
@@ -1081,7 +1294,7 @@
         <v>41</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="D28" s="3">
@@ -1099,7 +1312,7 @@
         <v>35</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -1111,7 +1324,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
     </row>
@@ -1123,7 +1336,7 @@
         <v>51</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="D31" s="3">
@@ -1141,7 +1354,7 @@
         <v>52</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="D32" s="3">
@@ -1159,7 +1372,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="D33" s="3">
@@ -1177,7 +1390,7 @@
         <v>53</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="D34" s="3">
@@ -1195,7 +1408,7 @@
         <v>54</v>
       </c>
       <c r="C35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="D35" s="3">
@@ -1213,7 +1426,7 @@
         <v>79</v>
       </c>
       <c r="C36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="D36" s="3">
@@ -1234,8 +1447,483 @@
         <v>80</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="D38" s="3">
+        <v>67</v>
+      </c>
+      <c r="E38" s="3">
+        <v>327</v>
+      </c>
+      <c r="F38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="3">
+        <v>55</v>
+      </c>
+      <c r="D40" s="3">
+        <v>66</v>
+      </c>
+      <c r="E40" s="3">
+        <v>833</v>
+      </c>
+      <c r="F40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="6">
+        <f t="shared" ref="C42:C49" si="4">LEN(B42)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="6">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="6">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="6">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="D48" s="3">
+        <v>70</v>
+      </c>
+      <c r="E48" s="3">
+        <v>732</v>
+      </c>
+      <c r="F48" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="D49" s="3">
+        <v>69</v>
+      </c>
+      <c r="E49" s="3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" ref="C50:C69" si="5">LEN(B50)</f>
+        <v>43</v>
+      </c>
+      <c r="D50" s="3">
+        <v>72</v>
+      </c>
+      <c r="E50" s="3">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="D52" s="3">
+        <v>65</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3982</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="D54" s="3">
+        <v>59</v>
+      </c>
+      <c r="E54" s="3">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="3">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="D56" s="3">
+        <v>65</v>
+      </c>
+      <c r="E56" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="3">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="F57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="3">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="3">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" s="3">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="3">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="3">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="3">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="D63" s="3">
+        <v>59</v>
+      </c>
+      <c r="E63" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="3">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="3">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="D65" s="3">
+        <v>56</v>
+      </c>
+      <c r="E65" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="3">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" s="3">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="D67" s="3">
+        <v>69</v>
+      </c>
+      <c r="E67" s="3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="3">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="D68" s="3">
+        <v>69</v>
+      </c>
+      <c r="E68" s="3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" s="3">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="D69" s="3">
+        <v>69</v>
+      </c>
+      <c r="E69" s="3">
+        <v>800</v>
       </c>
     </row>
   </sheetData>
